--- a/Ölpressverband.xlsx
+++ b/Ölpressverband.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langohra.tmb18\Documents\GitHub\KE4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B6202A-6716-4FEB-B286-903E2BBF65CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB41BC80-5BEA-409D-9F1A-95BAC8DF9869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="345" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09-pressv20" sheetId="1" r:id="rId1"/>
@@ -3368,10 +3368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="D1" s="12">
         <f ca="1">NOW()</f>
-        <v>43864.510878472225</v>
+        <v>43864.517253935184</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3500,13 +3500,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>74</v>
@@ -3528,7 +3528,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>75</v>
@@ -3540,7 +3540,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
         <v>10</v>
@@ -3548,7 +3548,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>73</v>
@@ -3560,7 +3560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>82</v>
@@ -3572,7 +3572,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -3584,7 +3584,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="15" t="s">
         <v>14</v>
@@ -3592,7 +3592,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -3604,7 +3604,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -3613,10 +3613,15 @@
         <v>18</v>
       </c>
       <c r="D27" s="23">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+        <f>E27</f>
+        <v>17.503496809861506</v>
+      </c>
+      <c r="E27" s="13">
+        <f>17.5/COS(1.1458788*2*3.14/360)</f>
+        <v>17.503496809861506</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -3628,7 +3633,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -3640,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="15" t="s">
         <v>23</v>
@@ -3648,7 +3653,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="22"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -3660,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>78</v>
@@ -3888,7 +3893,7 @@
       </c>
       <c r="D51" s="29">
         <f>D50*D26*PI()*D27*D23</f>
-        <v>119877.27418504797</v>
+        <v>119901.22778702171</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -3901,7 +3906,7 @@
       </c>
       <c r="D52" s="30">
         <f>D51/D22</f>
-        <v>59938.637092523983</v>
+        <v>59950.613893510854</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3914,7 +3919,7 @@
       </c>
       <c r="D53" s="31">
         <f>D52*(D26*10^-3/2)</f>
-        <v>6503.3421245388517</v>
+        <v>6504.6416074459275</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3927,7 +3932,7 @@
       </c>
       <c r="D54" s="29">
         <f>D52</f>
-        <v>59938.637092523983</v>
+        <v>59950.613893510854</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4075,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F864B-7449-46FD-ADE2-616EB2F8A424}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4099,7 +4104,7 @@
       </c>
       <c r="D1" s="12">
         <f ca="1">NOW()</f>
-        <v>43864.510878472225</v>
+        <v>43864.517253935184</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4207,13 +4212,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>74</v>
@@ -4235,7 +4240,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>75</v>
@@ -4247,7 +4252,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
         <v>10</v>
@@ -4255,7 +4260,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>73</v>
@@ -4267,7 +4272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>82</v>
@@ -4279,7 +4284,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -4291,7 +4296,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="15" t="s">
         <v>14</v>
@@ -4299,7 +4304,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -4311,7 +4316,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -4320,10 +4325,15 @@
         <v>18</v>
       </c>
       <c r="D27" s="23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+        <f>E27</f>
+        <v>24.004795624952919</v>
+      </c>
+      <c r="E27" s="13">
+        <f>24/COS(1.1458788*2*3.14/360)</f>
+        <v>24.004795624952919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -4335,7 +4345,7 @@
         <v>588.75</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -4347,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="15" t="s">
         <v>23</v>
@@ -4355,7 +4365,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="22"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -4367,7 +4377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>78</v>
@@ -4595,7 +4605,7 @@
       </c>
       <c r="D51" s="29">
         <f>D50*D26*PI()*D27*D23</f>
-        <v>515664.44718522247</v>
+        <v>412613.98885785311</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -4608,7 +4618,7 @@
       </c>
       <c r="D52" s="30">
         <f>D51/D22</f>
-        <v>257832.22359261123</v>
+        <v>206306.99442892655</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4621,7 +4631,7 @@
       </c>
       <c r="D53" s="31">
         <f>D52*(D26*10^-3/2)</f>
-        <v>27974.796259798317</v>
+        <v>22384.308895538532</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,7 +4644,7 @@
       </c>
       <c r="D54" s="29">
         <f>D52</f>
-        <v>257832.22359261123</v>
+        <v>206306.99442892655</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,10 +4791,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{149A42DD-EE91-4D0C-A349-96B11DB8A54E}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4805,7 +4815,7 @@
       </c>
       <c r="D1" s="12">
         <f ca="1">NOW()</f>
-        <v>43864.510878472225</v>
+        <v>43864.517253935184</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4913,13 +4923,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -4929,7 +4939,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>74</v>
@@ -4941,7 +4951,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>75</v>
@@ -4953,7 +4963,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
         <v>10</v>
@@ -4961,7 +4971,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>73</v>
@@ -4973,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>82</v>
@@ -4985,7 +4995,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -4997,7 +5007,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="15" t="s">
         <v>14</v>
@@ -5005,7 +5015,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -5017,7 +5027,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -5028,8 +5038,12 @@
       <c r="D27" s="23">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <f>22.5/COS(1.1458788*2*3.14/360)</f>
+        <v>22.504495898393362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -5041,7 +5055,7 @@
         <v>310.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -5053,7 +5067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="15" t="s">
         <v>23</v>
@@ -5061,7 +5075,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="22"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -5073,7 +5087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>78</v>
@@ -5487,10 +5501,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A652CE9-BA66-4652-B792-720AED5D7E82}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5511,7 +5525,7 @@
       </c>
       <c r="D1" s="12">
         <f ca="1">NOW()</f>
-        <v>43864.510878472225</v>
+        <v>43864.517253935184</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5619,13 +5633,13 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -5635,7 +5649,7 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>74</v>
@@ -5647,7 +5661,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>75</v>
@@ -5659,7 +5673,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="15" t="s">
         <v>10</v>
@@ -5667,7 +5681,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>73</v>
@@ -5679,7 +5693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>82</v>
@@ -5691,7 +5705,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -5703,7 +5717,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="15" t="s">
         <v>14</v>
@@ -5711,7 +5725,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="22"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>15</v>
@@ -5723,7 +5737,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>17</v>
@@ -5732,10 +5746,15 @@
         <v>18</v>
       </c>
       <c r="D27" s="23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+        <f>E27</f>
+        <v>40.007992708254868</v>
+      </c>
+      <c r="E27" s="13">
+        <f>40/COS(1.1458788*2*3.14/360)</f>
+        <v>40.007992708254868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -5747,7 +5766,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>21</v>
@@ -5759,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="15" t="s">
         <v>23</v>
@@ -5767,7 +5786,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="22"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -5779,7 +5798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>78</v>
@@ -6007,7 +6026,7 @@
       </c>
       <c r="D51" s="29">
         <f>D50*D26*PI()*D27*D23</f>
-        <v>300223.1545318141</v>
+        <v>300283.14443395234</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
@@ -6020,7 +6039,7 @@
       </c>
       <c r="D52" s="30">
         <f>D51/D22</f>
-        <v>150111.57726590705</v>
+        <v>150141.57221697617</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6033,7 +6052,7 @@
       </c>
       <c r="D53" s="31">
         <f>D52*(D26*10^-3/2)</f>
-        <v>16287.106133350915</v>
+        <v>16290.360585541914</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6046,7 +6065,7 @@
       </c>
       <c r="D54" s="29">
         <f>D52</f>
-        <v>150111.57726590705</v>
+        <v>150141.57221697617</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -6195,7 +6214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC2237-01B7-47E0-9D9E-AB3E32901ED8}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -6210,7 +6229,7 @@
       </c>
       <c r="B1" s="37">
         <f>'09-pressv20'!D51+'09-pressv20 (2)'!D51+'09-pressv20 (3)'!D51+'09-pressv20 (4)'!D51</f>
-        <v>1164296.7225732855</v>
+        <v>1061330.207750028</v>
       </c>
       <c r="C1" t="s">
         <v>91</v>
